--- a/data/trans_orig/P19C11_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7B5A613-C132-4784-ADA8-FE45A8818325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA729A0A-AE4B-48BB-A877-22D3F76E5281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3AC4638-7571-484D-A88D-082E5FD598C9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E88AEBA-1A1A-4A94-A3E3-C3EED4DE5C34}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -74,313 +74,325 @@
     <t>7,64%</t>
   </si>
   <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -795,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896DC5F0-FFD7-470E-9622-2903F1A3C8A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4465A76D-5A0A-4CD4-8CE7-A3F16FF23487}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -955,13 +967,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>105</v>
@@ -970,13 +982,13 @@
         <v>92794</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -985,13 +997,13 @@
         <v>120171</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>325</v>
@@ -1000,13 +1012,13 @@
         <v>212965</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1021,13 +1033,13 @@
         <v>100474</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>238</v>
@@ -1036,13 +1048,13 @@
         <v>128286</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>353</v>
@@ -1051,18 +1063,18 @@
         <v>228760</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1074,13 +1086,13 @@
         <v>21096</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -1089,13 +1101,13 @@
         <v>18883</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -1104,19 +1116,19 @@
         <v>39980</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>554</v>
@@ -1125,13 +1137,13 @@
         <v>505053</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>920</v>
@@ -1140,13 +1152,13 @@
         <v>550614</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1474</v>
@@ -1155,13 +1167,13 @@
         <v>1055666</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1176,13 +1188,13 @@
         <v>526149</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>959</v>
@@ -1191,13 +1203,13 @@
         <v>569497</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1540</v>
@@ -1206,18 +1218,18 @@
         <v>1095646</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1229,13 +1241,13 @@
         <v>35733</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -1244,13 +1256,13 @@
         <v>40568</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>106</v>
@@ -1259,19 +1271,19 @@
         <v>76301</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>898</v>
@@ -1280,13 +1292,13 @@
         <v>979863</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1418</v>
@@ -1295,13 +1307,13 @@
         <v>1001532</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>2316</v>
@@ -1310,13 +1322,13 @@
         <v>1981395</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1331,13 +1343,13 @@
         <v>1015596</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>1486</v>
@@ -1346,13 +1358,13 @@
         <v>1042100</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>2422</v>
@@ -1361,18 +1373,18 @@
         <v>2057696</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1384,13 +1396,13 @@
         <v>35241</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -1399,13 +1411,13 @@
         <v>35313</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -1414,19 +1426,19 @@
         <v>70554</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>616</v>
@@ -1435,13 +1447,13 @@
         <v>673300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>969</v>
@@ -1450,13 +1462,13 @@
         <v>826875</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>1585</v>
@@ -1465,13 +1477,13 @@
         <v>1500176</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1486,13 +1498,13 @@
         <v>708541</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>1024</v>
@@ -1501,13 +1513,13 @@
         <v>862188</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1679</v>
@@ -1516,18 +1528,18 @@
         <v>1570730</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1539,13 +1551,13 @@
         <v>47940</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -1554,13 +1566,13 @@
         <v>47049</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -1569,19 +1581,19 @@
         <v>94989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>908</v>
@@ -1590,13 +1602,13 @@
         <v>878438</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>1437</v>
@@ -1605,13 +1617,13 @@
         <v>1067727</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>2345</v>
@@ -1620,13 +1632,13 @@
         <v>1946165</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,13 +1653,13 @@
         <v>926378</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>1510</v>
@@ -1656,13 +1668,13 @@
         <v>1114776</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>2476</v>
@@ -1671,13 +1683,13 @@
         <v>2041154</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,13 +1706,13 @@
         <v>147690</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>253</v>
@@ -1709,13 +1721,13 @@
         <v>149929</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>425</v>
@@ -1724,19 +1736,19 @@
         <v>297619</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>3081</v>
@@ -1745,13 +1757,13 @@
         <v>3129448</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>4964</v>
@@ -1760,13 +1772,13 @@
         <v>3566919</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>8045</v>
@@ -1775,13 +1787,13 @@
         <v>6696367</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,13 +1808,13 @@
         <v>3277138</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>5217</v>
@@ -1811,13 +1823,13 @@
         <v>3716848</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>8470</v>
@@ -1826,18 +1838,18 @@
         <v>6993986</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C11_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA729A0A-AE4B-48BB-A877-22D3F76E5281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DB63A4D-73ED-4872-8955-D247111EF7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E88AEBA-1A1A-4A94-A3E3-C3EED4DE5C34}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BD8CCAD-A9EF-4E60-9686-48E0178C23B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -125,7 +125,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>4,01%</t>
@@ -182,7 +182,7 @@
     <t>97,22%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>3,52%</t>
@@ -239,7 +239,7 @@
     <t>97,01%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>6,94%</t>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4465A76D-5A0A-4CD4-8CE7-A3F16FF23487}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836E003E-1DC3-4EFA-996F-33CD42098730}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P19C11_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DB63A4D-73ED-4872-8955-D247111EF7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE66E8D-BB75-4E3D-88A2-2BC3BE3C6318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BD8CCAD-A9EF-4E60-9686-48E0178C23B3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DBFFDDBF-26EF-4185-8D2D-D99D1AA11A98}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -74,25 +74,28 @@
     <t>7,64%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,52%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,25 +104,28 @@
     <t>92,36%</t>
   </si>
   <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>93,1%</t>
   </si>
   <si>
-    <t>95,48%</t>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,55 +137,55 @@
     <t>4,01%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>96,35%</t>
   </si>
   <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -188,100 +194,106 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>2,36%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>95,9%</t>
   </si>
   <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>94,48%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -290,109 +302,85 @@
     <t>5,18%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>5,38%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>94,82%</t>
   </si>
   <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>95,78%</t>
   </si>
   <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>94,62%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836E003E-1DC3-4EFA-996F-33CD42098730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C17AAD2-E3FD-4D34-AA65-55E8D4E60F7E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -967,13 +955,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>105</v>
@@ -982,13 +970,13 @@
         <v>92794</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -997,13 +985,13 @@
         <v>120171</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>325</v>
@@ -1012,13 +1000,13 @@
         <v>212965</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1033,13 +1021,13 @@
         <v>100474</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>238</v>
@@ -1048,13 +1036,13 @@
         <v>128286</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>353</v>
@@ -1063,18 +1051,18 @@
         <v>228760</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1086,13 +1074,13 @@
         <v>21096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -1101,13 +1089,13 @@
         <v>18883</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -1116,19 +1104,19 @@
         <v>39980</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>554</v>
@@ -1137,13 +1125,13 @@
         <v>505053</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>920</v>
@@ -1152,13 +1140,13 @@
         <v>550614</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1474</v>
@@ -1167,13 +1155,13 @@
         <v>1055666</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1188,13 +1176,13 @@
         <v>526149</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>959</v>
@@ -1203,13 +1191,13 @@
         <v>569497</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1540</v>
@@ -1218,18 +1206,18 @@
         <v>1095646</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1241,13 +1229,13 @@
         <v>35733</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -1256,13 +1244,13 @@
         <v>40568</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>106</v>
@@ -1271,19 +1259,19 @@
         <v>76301</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>898</v>
@@ -1292,13 +1280,13 @@
         <v>979863</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1418</v>
@@ -1307,13 +1295,13 @@
         <v>1001532</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>2316</v>
@@ -1322,13 +1310,13 @@
         <v>1981395</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,13 +1331,13 @@
         <v>1015596</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>1486</v>
@@ -1358,13 +1346,13 @@
         <v>1042100</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>2422</v>
@@ -1373,18 +1361,18 @@
         <v>2057696</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1396,13 +1384,13 @@
         <v>35241</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -1411,13 +1399,13 @@
         <v>35313</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -1426,19 +1414,19 @@
         <v>70554</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>616</v>
@@ -1447,13 +1435,13 @@
         <v>673300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>969</v>
@@ -1462,13 +1450,13 @@
         <v>826875</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="M14" s="7">
         <v>1585</v>
@@ -1477,13 +1465,13 @@
         <v>1500176</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,13 +1486,13 @@
         <v>708541</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>1024</v>
@@ -1513,13 +1501,13 @@
         <v>862188</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1679</v>
@@ -1528,18 +1516,18 @@
         <v>1570730</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1551,13 +1539,13 @@
         <v>47940</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -1566,13 +1554,13 @@
         <v>47049</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -1581,19 +1569,19 @@
         <v>94989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>908</v>
@@ -1602,13 +1590,13 @@
         <v>878438</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>1437</v>
@@ -1617,13 +1605,13 @@
         <v>1067727</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>2345</v>
@@ -1632,13 +1620,13 @@
         <v>1946165</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1641,13 @@
         <v>926378</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>1510</v>
@@ -1668,13 +1656,13 @@
         <v>1114776</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>2476</v>
@@ -1683,13 +1671,13 @@
         <v>2041154</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1694,13 @@
         <v>147690</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>253</v>
@@ -1721,13 +1709,13 @@
         <v>149929</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="M19" s="7">
         <v>425</v>
@@ -1736,19 +1724,19 @@
         <v>297619</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>3081</v>
@@ -1757,13 +1745,13 @@
         <v>3129448</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>4964</v>
@@ -1772,13 +1760,13 @@
         <v>3566919</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>8045</v>
@@ -1787,13 +1775,13 @@
         <v>6696367</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1796,13 @@
         <v>3277138</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>5217</v>
@@ -1823,13 +1811,13 @@
         <v>3716848</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>8470</v>
@@ -1838,18 +1826,18 @@
         <v>6993986</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C11_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE66E8D-BB75-4E3D-88A2-2BC3BE3C6318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDC31C02-925C-4C56-85AB-7D069A09C7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DBFFDDBF-26EF-4185-8D2D-D99D1AA11A98}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7ADBA0E3-34E4-43A4-805E-134BEA8FEDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -65,322 +65,277 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -795,8 +750,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C17AAD2-E3FD-4D34-AA65-55E8D4E60F7E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0346CF-A178-4C7B-9A04-FDC2FD1C5A7C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -913,10 +868,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>7680</v>
+        <v>28580</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -928,10 +883,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I4" s="7">
-        <v>8115</v>
+        <v>25341</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -943,10 +898,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="N4" s="7">
-        <v>15795</v>
+        <v>53921</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -955,58 +910,58 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>659</v>
+      </c>
+      <c r="D5" s="7">
+        <v>582724</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>105</v>
-      </c>
-      <c r="D5" s="7">
-        <v>92794</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1140</v>
+      </c>
+      <c r="I5" s="7">
+        <v>626191</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>220</v>
-      </c>
-      <c r="I5" s="7">
-        <v>120171</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1799</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1208915</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>325</v>
-      </c>
-      <c r="N5" s="7">
-        <v>212965</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1015,153 +970,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>115</v>
+        <v>696</v>
       </c>
       <c r="D6" s="7">
-        <v>100474</v>
+        <v>611304</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>238</v>
+        <v>1197</v>
       </c>
       <c r="I6" s="7">
-        <v>128286</v>
+        <v>651532</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>353</v>
+        <v>1893</v>
       </c>
       <c r="N6" s="7">
-        <v>228760</v>
+        <v>1262836</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>21096</v>
+        <v>33572</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>68</v>
+      </c>
+      <c r="I7" s="7">
+        <v>38086</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>39</v>
-      </c>
-      <c r="I7" s="7">
-        <v>18883</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>106</v>
+      </c>
+      <c r="N7" s="7">
+        <v>71657</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7">
-        <v>66</v>
-      </c>
-      <c r="N7" s="7">
-        <v>39980</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>554</v>
+        <v>898</v>
       </c>
       <c r="D8" s="7">
-        <v>505053</v>
+        <v>1133144</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>1418</v>
+      </c>
+      <c r="I8" s="7">
+        <v>904239</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>920</v>
-      </c>
-      <c r="I8" s="7">
-        <v>550614</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>2316</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2037383</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>1474</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1055666</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1170,153 +1125,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>581</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>526149</v>
+        <v>1166716</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>959</v>
+        <v>1486</v>
       </c>
       <c r="I9" s="7">
-        <v>569497</v>
+        <v>942325</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1540</v>
+        <v>2422</v>
       </c>
       <c r="N9" s="7">
-        <v>1095646</v>
+        <v>2109040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>35733</v>
+        <v>33281</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>55</v>
+      </c>
+      <c r="I10" s="7">
+        <v>32924</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>68</v>
-      </c>
-      <c r="I10" s="7">
-        <v>40568</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="7">
+        <v>94</v>
+      </c>
+      <c r="N10" s="7">
+        <v>66205</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>106</v>
-      </c>
-      <c r="N10" s="7">
-        <v>76301</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>898</v>
+        <v>616</v>
       </c>
       <c r="D11" s="7">
-        <v>979863</v>
+        <v>652986</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="7">
+        <v>969</v>
+      </c>
+      <c r="I11" s="7">
+        <v>889129</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1585</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1542115</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>1418</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1001532</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2316</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1981395</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1325,153 +1280,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="D12" s="7">
-        <v>1015596</v>
+        <v>686267</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>1486</v>
+        <v>1024</v>
       </c>
       <c r="I12" s="7">
-        <v>1042100</v>
+        <v>922053</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>2422</v>
+        <v>1679</v>
       </c>
       <c r="N12" s="7">
-        <v>2057696</v>
+        <v>1608320</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7">
-        <v>35241</v>
+        <v>45242</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="7">
+        <v>73</v>
+      </c>
+      <c r="I13" s="7">
+        <v>42562</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>131</v>
+      </c>
+      <c r="N13" s="7">
+        <v>87803</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>55</v>
-      </c>
-      <c r="I13" s="7">
-        <v>35313</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="7">
-        <v>94</v>
-      </c>
-      <c r="N13" s="7">
-        <v>70554</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>616</v>
+        <v>908</v>
       </c>
       <c r="D14" s="7">
-        <v>673300</v>
+        <v>844693</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1437</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1020355</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2345</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1865048</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>969</v>
-      </c>
-      <c r="I14" s="7">
-        <v>826875</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1585</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1500176</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1480,153 +1435,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>655</v>
+        <v>966</v>
       </c>
       <c r="D15" s="7">
-        <v>708541</v>
+        <v>889935</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>1024</v>
+        <v>1510</v>
       </c>
       <c r="I15" s="7">
-        <v>862188</v>
+        <v>1062917</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1679</v>
+        <v>2476</v>
       </c>
       <c r="N15" s="7">
-        <v>1570730</v>
+        <v>1952851</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="D16" s="7">
-        <v>47940</v>
+        <v>140674</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="7">
+        <v>253</v>
+      </c>
+      <c r="I16" s="7">
+        <v>138912</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>425</v>
+      </c>
+      <c r="N16" s="7">
+        <v>279587</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>73</v>
-      </c>
-      <c r="I16" s="7">
-        <v>47049</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" s="7">
-        <v>131</v>
-      </c>
-      <c r="N16" s="7">
-        <v>94989</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>908</v>
+        <v>3081</v>
       </c>
       <c r="D17" s="7">
-        <v>878438</v>
+        <v>3213547</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4964</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3439915</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>8045</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6653461</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="7">
-        <v>1437</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1067727</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2345</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1946165</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1635,217 +1590,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>966</v>
+        <v>3253</v>
       </c>
       <c r="D18" s="7">
-        <v>926378</v>
+        <v>3354221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>1510</v>
+        <v>5217</v>
       </c>
       <c r="I18" s="7">
-        <v>1114776</v>
+        <v>3578827</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>2476</v>
+        <v>8470</v>
       </c>
       <c r="N18" s="7">
-        <v>2041154</v>
+        <v>6933048</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>172</v>
-      </c>
-      <c r="D19" s="7">
-        <v>147690</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="7">
-        <v>253</v>
-      </c>
-      <c r="I19" s="7">
-        <v>149929</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="7">
-        <v>425</v>
-      </c>
-      <c r="N19" s="7">
-        <v>297619</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3081</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3129448</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4964</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3566919</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8045</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6696367</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3253</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3277138</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5217</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8470</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6993986</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>115</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
